--- a/src/financial.xlsx
+++ b/src/financial.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NEW_START\14_PROGRAMANDO\SENAI\Projetos\backend-01\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D9BECE7-6F10-4D42-B199-F3068B05C980}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E769DB60-415C-4E51-AC52-F25B2289643E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>price</t>
   </si>
@@ -45,13 +45,16 @@
     <t>consumo</t>
   </si>
   <si>
-    <t>churrascaria</t>
-  </si>
-  <si>
-    <t>alimentação</t>
-  </si>
-  <si>
-    <t>cerveja artesanal</t>
+    <t>sei la</t>
+  </si>
+  <si>
+    <t>mercado</t>
+  </si>
+  <si>
+    <t>geral</t>
+  </si>
+  <si>
+    <t>viagem</t>
   </si>
 </sst>
 </file>
@@ -87,9 +90,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -373,7 +377,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -411,30 +415,30 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2">
+        <v>43946</v>
+      </c>
+      <c r="D3" t="s">
         <v>7</v>
-      </c>
-      <c r="C3" s="1">
-        <v>44525</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>27</v>
+        <v>133</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1">
-        <v>44557</v>
+        <v>8</v>
+      </c>
+      <c r="C4" s="2">
+        <v>44645</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
